--- a/Notebooks/pandas tutorial/Excel and CSV Files/General Weather Data.xlsx
+++ b/Notebooks/pandas tutorial/Excel and CSV Files/General Weather Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhyms\Documents\GitHub\Python-Projects\Notebooks\pandas tutorial\Excel and CSV Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062921A1-41AC-4ECC-B913-252120F1187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC514C7-3E30-41D5-8724-F33501229428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="2484" windowWidth="10440" windowHeight="6684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -39,18 +36,18 @@
     <t>windspeed</t>
   </si>
   <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>ankara</t>
+  </si>
+  <si>
+    <t>hong kong</t>
+  </si>
+  <si>
     <t>event</t>
   </si>
   <si>
-    <t>new york</t>
-  </si>
-  <si>
-    <t>ankara</t>
-  </si>
-  <si>
-    <t>hong kong</t>
-  </si>
-  <si>
     <t>Rain</t>
   </si>
   <si>
@@ -64,18 +61,29 @@
   </si>
   <si>
     <t>Cloudy</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -394,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -404,20 +411,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -425,7 +432,7 @@
         <v>44197</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -434,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,7 +449,7 @@
         <v>44198</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -451,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -459,7 +466,7 @@
         <v>44199</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -468,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -476,7 +483,7 @@
         <v>44200</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -485,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -493,7 +500,7 @@
         <v>44197</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -502,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -510,7 +517,7 @@
         <v>44198</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>85</v>
@@ -519,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -527,7 +534,7 @@
         <v>44199</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>87</v>
@@ -536,7 +543,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -544,7 +551,7 @@
         <v>44200</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>92</v>
@@ -553,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,7 +568,7 @@
         <v>44197</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>45</v>
@@ -570,7 +577,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,7 +585,7 @@
         <v>44198</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -587,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,7 +602,7 @@
         <v>44199</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>54</v>
@@ -604,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,7 +619,7 @@
         <v>44200</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>42</v>
@@ -621,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
